--- a/ciclos/2024_1.xlsx
+++ b/ciclos/2024_1.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="iatMkgezVQXfx1PLGYEHFR5XND1pRP1f277qb7mjxb0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="/5Kb/CrjfqDSUsVI7uDxUF2eS0kbQjdr0S16hvBo4do="/>
     </ext>
   </extLst>
 </workbook>
@@ -639,7 +639,7 @@
     <t>dra.joana</t>
   </si>
   <si>
-    <t>dra..joana@rocketcorp.com</t>
+    <t>dra.joana@rocketcorp.com</t>
   </si>
   <si>
     <t>- Tenho dificuldade em manter o controle das tarefas. Já perdi prazos por não acompanhar corretamente minhas demandas e não uso nenhuma ferramenta de forma consistente. Preciso de suporte para evoluir nesse aspecto.</t>
@@ -813,15 +813,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1040,6721 +1037,6709 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.29"/>
-    <col customWidth="1" min="2" max="2" width="50.86"/>
-    <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="4" width="34.0"/>
-    <col customWidth="1" min="5" max="5" width="49.86"/>
-    <col customWidth="1" min="6" max="6" width="121.0"/>
-    <col customWidth="1" min="7" max="7" width="89.14"/>
-    <col customWidth="1" min="8" max="8" width="90.43"/>
-    <col customWidth="1" min="9" max="9" width="15.0"/>
-    <col customWidth="1" min="10" max="10" width="48.29"/>
-    <col customWidth="1" min="11" max="11" width="44.71"/>
-    <col customWidth="1" min="12" max="12" width="216.29"/>
-    <col customWidth="1" min="13" max="13" width="135.57"/>
-    <col customWidth="1" min="14" max="14" width="67.43"/>
-    <col customWidth="1" min="15" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="50.14"/>
+    <col customWidth="1" min="3" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>5.0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>5.0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>5.0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2.0</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
         <v>5.0</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>4.0</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
         <v>4.0</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>4.0</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>3.0</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>5.0</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
         <v>4.0</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>3.0</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>12.0</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>3.4</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>12.0</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>3.4</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>3.0</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>4.3</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>2.0</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>2.0</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>3.0</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>3.0</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2">
         <v>3.0</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>1.0</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="C31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2">
         <v>1.0</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>4.0</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>4.0</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>2.0</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2">
         <v>2.0</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>4.0</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>5.0</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>2.0</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>5.0</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="C40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="2">
         <v>5.0</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2">
         <v>3.0</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="C42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2">
         <v>1.0</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>9.0</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>4.2</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>3.0</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>4.1</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>9.0</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>4.4</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="N46" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>2.0</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>4.0</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>1.0</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>1.0</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="C52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="2">
         <v>5.0</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="C53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>3.0</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="C54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="2">
         <v>4.0</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="3" t="s">
+      <c r="C55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>4.0</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>4.0</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>3.0</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="C58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="2">
         <v>2.0</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>1.0</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="2">
         <v>7.0</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <v>4.3</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="L66" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="2">
         <v>10.0</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <v>3.1</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L67" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="2">
         <v>4.0</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <v>3.3</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="L68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="M69" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="N69" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="M70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N70" s="3" t="s">
+      <c r="N70" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="C71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>5.0</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="3" t="s">
+      <c r="C72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>5.0</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>5.0</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>4.0</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="3">
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="2">
         <v>4.0</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="C76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>5.0</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="3">
+      <c r="C77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="2">
         <v>5.0</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>1.0</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>4.0</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="C80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>5.0</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="2">
         <v>2.0</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>3.0</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <v>5.0</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>4.0</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="C85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <v>5.0</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="3">
+      <c r="C86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="2">
         <v>2.0</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" s="3">
+      <c r="C87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="2">
         <v>1.0</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="3">
+      <c r="C88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="2">
         <v>4.0</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="2">
         <v>4.0</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <v>3.9</v>
       </c>
-      <c r="K89" s="3" t="s">
+      <c r="K89" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="L89" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H90" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="2">
         <v>8.0</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="2">
         <v>3.9</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K90" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L90" s="3" t="s">
+      <c r="L90" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H91" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="2">
         <v>4.0</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="2">
         <v>4.0</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M92" s="3" t="s">
+      <c r="M92" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N92" s="3" t="s">
+      <c r="N92" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M93" s="3" t="s">
+      <c r="M93" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N93" s="3" t="s">
+      <c r="N93" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>5.0</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>5.0</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="C96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <v>3.0</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <v>4.0</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="3">
+      <c r="C98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="2">
         <v>1.0</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="C99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="2">
         <v>4.0</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="C100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="2">
         <v>3.0</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="3" t="s">
+      <c r="C101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="2">
         <v>4.0</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="C102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="2">
         <v>3.0</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="3" t="s">
+      <c r="C103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="2">
         <v>5.0</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" s="3">
+      <c r="C104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="2">
         <v>5.0</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="C105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="2">
         <v>4.0</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="C106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="C107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="3" t="s">
+      <c r="C108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="H112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="2">
         <v>10.0</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="2">
         <v>3.5</v>
       </c>
-      <c r="K112" s="3" t="s">
+      <c r="K112" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L112" s="3" t="s">
+      <c r="L112" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G113" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H113" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="2">
         <v>4.0</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="2">
         <v>3.2</v>
       </c>
-      <c r="K113" s="3" t="s">
+      <c r="K113" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L113" s="3" t="s">
+      <c r="L113" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="2">
         <v>12.0</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="2">
         <v>4.9</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="K114" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L114" s="3" t="s">
+      <c r="L114" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M115" s="3" t="s">
+      <c r="M115" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N115" s="3" t="s">
+      <c r="N115" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M116" s="3" t="s">
+      <c r="M116" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="N116" s="3" t="s">
+      <c r="N116" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="3" t="s">
+      <c r="C117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="2">
         <v>2.0</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" s="3" t="s">
+      <c r="C118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="2">
         <v>4.0</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" s="3" t="s">
+      <c r="C119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="2">
         <v>4.0</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F119" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="2">
         <v>5.0</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="C121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="2">
         <v>1.0</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="2">
         <v>1.0</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="C123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="2">
         <v>1.0</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="3" t="s">
+      <c r="C124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="2">
         <v>3.0</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="3" t="s">
+      <c r="C125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="2">
         <v>2.0</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="3" t="s">
+      <c r="C126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="2">
         <v>2.0</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E127" s="3">
+      <c r="C127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="2">
         <v>5.0</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" s="3" t="s">
+      <c r="C128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="2">
         <v>5.0</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" s="3" t="s">
+      <c r="C129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="2">
         <v>5.0</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F129" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="3" t="s">
+      <c r="C130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="2">
         <v>4.0</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="3" t="s">
+      <c r="C131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="2">
         <v>1.0</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" s="3">
+      <c r="C132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" s="2">
         <v>3.0</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="3">
+      <c r="C133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" s="2">
         <v>2.0</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134" s="3">
+      <c r="C134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="2">
         <v>3.0</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F134" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G135" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I135" s="3">
+      <c r="I135" s="2">
         <v>4.0</v>
       </c>
-      <c r="J135" s="3">
+      <c r="J135" s="2">
         <v>3.2</v>
       </c>
-      <c r="K135" s="3" t="s">
+      <c r="K135" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L135" s="3" t="s">
+      <c r="L135" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I136" s="3">
+      <c r="I136" s="2">
         <v>3.0</v>
       </c>
-      <c r="J136" s="3">
+      <c r="J136" s="2">
         <v>4.8</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L136" s="3" t="s">
+      <c r="L136" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I137" s="3">
+      <c r="I137" s="2">
         <v>6.0</v>
       </c>
-      <c r="J137" s="3">
+      <c r="J137" s="2">
         <v>4.2</v>
       </c>
-      <c r="K137" s="3" t="s">
+      <c r="K137" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L137" s="3" t="s">
+      <c r="L137" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M138" s="3" t="s">
+      <c r="M138" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N138" s="3" t="s">
+      <c r="N138" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M139" s="3" t="s">
+      <c r="M139" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N139" s="3" t="s">
+      <c r="N139" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="3" t="s">
+      <c r="C140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="2">
         <v>5.0</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" s="3" t="s">
+      <c r="C141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="2">
         <v>3.0</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" s="3" t="s">
+      <c r="C142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="2">
         <v>1.0</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="F142" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" s="3" t="s">
+      <c r="C143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="2">
         <v>3.0</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F143" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="3">
+      <c r="C144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="2">
         <v>3.0</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" s="3" t="s">
+      <c r="C145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="2">
         <v>2.0</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E146" s="3">
+      <c r="C146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="2">
         <v>2.0</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F146" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" s="3" t="s">
+      <c r="C147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="2">
         <v>3.0</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="F147" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D148" s="3" t="s">
+      <c r="C148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="2">
         <v>4.0</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="3" t="s">
+      <c r="C149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="2">
         <v>2.0</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150" s="3">
+      <c r="C150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="2">
         <v>2.0</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="F150" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" s="3" t="s">
+      <c r="C151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="2">
         <v>2.0</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F151" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="3" t="s">
+      <c r="C152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="2">
         <v>2.0</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F152" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="3" t="s">
+      <c r="C153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="2">
         <v>1.0</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F153" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="C154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="2">
         <v>3.0</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F154" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155" s="3">
+      <c r="C155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="2">
         <v>1.0</v>
       </c>
-      <c r="F155" s="3" t="s">
+      <c r="F155" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" s="3">
+      <c r="C156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="2">
         <v>5.0</v>
       </c>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157" s="3">
+      <c r="C157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" s="2">
         <v>5.0</v>
       </c>
-      <c r="F157" s="3" t="s">
+      <c r="F157" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="G158" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I158" s="3">
+      <c r="I158" s="2">
         <v>11.0</v>
       </c>
-      <c r="J158" s="3">
+      <c r="J158" s="2">
         <v>3.3</v>
       </c>
-      <c r="K158" s="3" t="s">
+      <c r="K158" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L158" s="3" t="s">
+      <c r="L158" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G159" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I159" s="3">
+      <c r="I159" s="2">
         <v>3.0</v>
       </c>
-      <c r="J159" s="3">
+      <c r="J159" s="2">
         <v>3.4</v>
       </c>
-      <c r="K159" s="3" t="s">
+      <c r="K159" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L159" s="3" t="s">
+      <c r="L159" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G160" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="H160" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I160" s="3">
+      <c r="I160" s="2">
         <v>8.0</v>
       </c>
-      <c r="J160" s="3">
+      <c r="J160" s="2">
         <v>4.4</v>
       </c>
-      <c r="K160" s="3" t="s">
+      <c r="K160" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L160" s="3" t="s">
+      <c r="L160" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M161" s="3" t="s">
+      <c r="M161" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="N161" s="3" t="s">
+      <c r="N161" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M162" s="3" t="s">
+      <c r="M162" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N162" s="3" t="s">
+      <c r="N162" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" s="3" t="s">
+      <c r="C163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="2">
         <v>3.0</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F163" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="2">
         <v>5.0</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F164" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="3" t="s">
+      <c r="C165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="2">
         <v>1.0</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F165" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="C166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="2">
         <v>5.0</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E167" s="3">
+      <c r="C167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="2">
         <v>4.0</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="3" t="s">
+      <c r="C168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="2">
         <v>1.0</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F168" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E169" s="3">
+      <c r="C169" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="2">
         <v>2.0</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="F169" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" s="3" t="s">
+      <c r="C170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="2">
         <v>1.0</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F170" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" s="3" t="s">
+      <c r="C171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="2">
         <v>4.0</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F171" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" s="3" t="s">
+      <c r="C172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="2">
         <v>1.0</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E173" s="3">
+      <c r="C173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="2">
         <v>2.0</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="F173" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" s="3" t="s">
+      <c r="C174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="2">
         <v>4.0</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F174" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" s="3" t="s">
+      <c r="C175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="C176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" s="3" t="s">
+      <c r="C177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G181" s="3" t="s">
+      <c r="G181" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H181" s="3" t="s">
+      <c r="H181" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I181" s="3">
+      <c r="I181" s="2">
         <v>7.0</v>
       </c>
-      <c r="J181" s="3">
+      <c r="J181" s="2">
         <v>3.9</v>
       </c>
-      <c r="K181" s="3" t="s">
+      <c r="K181" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L181" s="3" t="s">
+      <c r="L181" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="G182" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H182" s="3" t="s">
+      <c r="H182" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I182" s="3">
+      <c r="I182" s="2">
         <v>11.0</v>
       </c>
-      <c r="J182" s="3">
+      <c r="J182" s="2">
         <v>3.3</v>
       </c>
-      <c r="K182" s="3" t="s">
+      <c r="K182" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L182" s="3" t="s">
+      <c r="L182" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G183" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H183" s="3" t="s">
+      <c r="H183" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I183" s="3">
+      <c r="I183" s="2">
         <v>7.0</v>
       </c>
-      <c r="J183" s="3">
+      <c r="J183" s="2">
         <v>3.4</v>
       </c>
-      <c r="K183" s="3" t="s">
+      <c r="K183" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L183" s="3" t="s">
+      <c r="L183" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M184" s="3" t="s">
+      <c r="M184" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N184" s="3" t="s">
+      <c r="N184" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M185" s="3" t="s">
+      <c r="M185" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N185" s="3" t="s">
+      <c r="N185" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" s="3" t="s">
+      <c r="C186" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="2">
         <v>3.0</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="F186" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" s="3" t="s">
+      <c r="C187" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="2">
         <v>2.0</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F187" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D188" s="3" t="s">
+      <c r="C188" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="2">
         <v>2.0</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="F188" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D189" s="3" t="s">
+      <c r="C189" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="2">
         <v>5.0</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="F189" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E190" s="3">
+      <c r="C190" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="2">
         <v>3.0</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="F190" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" s="3" t="s">
+      <c r="C191" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="2">
         <v>2.0</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="F191" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E192" s="3">
+      <c r="C192" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="2">
         <v>1.0</v>
       </c>
-      <c r="F192" s="3" t="s">
+      <c r="F192" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C193" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" s="3" t="s">
+      <c r="C193" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="2">
         <v>1.0</v>
       </c>
-      <c r="F193" s="3" t="s">
+      <c r="F193" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" s="3" t="s">
+      <c r="C194" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="2">
         <v>2.0</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="F194" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" s="3" t="s">
+      <c r="C195" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="2">
         <v>1.0</v>
       </c>
-      <c r="F195" s="3" t="s">
+      <c r="F195" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C196" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E196" s="3">
+      <c r="C196" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" s="2">
         <v>3.0</v>
       </c>
-      <c r="F196" s="3" t="s">
+      <c r="F196" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C197" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" s="3" t="s">
+      <c r="C197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="2">
         <v>2.0</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F197" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D198" s="3" t="s">
+      <c r="C198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="2">
         <v>5.0</v>
       </c>
-      <c r="F198" s="3" t="s">
+      <c r="F198" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C199" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" s="3" t="s">
+      <c r="C199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="2">
         <v>3.0</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="F199" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" s="3" t="s">
+      <c r="C200" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="2">
         <v>1.0</v>
       </c>
-      <c r="F200" s="3" t="s">
+      <c r="F200" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G204" s="3" t="s">
+      <c r="G204" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H204" s="3" t="s">
+      <c r="H204" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I204" s="3">
+      <c r="I204" s="2">
         <v>5.0</v>
       </c>
-      <c r="J204" s="3">
+      <c r="J204" s="2">
         <v>3.1</v>
       </c>
-      <c r="K204" s="3" t="s">
+      <c r="K204" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L204" s="3" t="s">
+      <c r="L204" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G205" s="3" t="s">
+      <c r="G205" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H205" s="3" t="s">
+      <c r="H205" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I205" s="3">
+      <c r="I205" s="2">
         <v>7.0</v>
       </c>
-      <c r="J205" s="3">
+      <c r="J205" s="2">
         <v>3.9</v>
       </c>
-      <c r="K205" s="3" t="s">
+      <c r="K205" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L205" s="3" t="s">
+      <c r="L205" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G206" s="3" t="s">
+      <c r="G206" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H206" s="3" t="s">
+      <c r="H206" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I206" s="3">
+      <c r="I206" s="2">
         <v>3.0</v>
       </c>
-      <c r="J206" s="3">
+      <c r="J206" s="2">
         <v>3.7</v>
       </c>
-      <c r="K206" s="3" t="s">
+      <c r="K206" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L206" s="3" t="s">
+      <c r="L206" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M207" s="3" t="s">
+      <c r="M207" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N207" s="3" t="s">
+      <c r="N207" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M208" s="3" t="s">
+      <c r="M208" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N208" s="3" t="s">
+      <c r="N208" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C209" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="C209" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E209" s="3">
+      <c r="E209" s="2">
         <v>3.0</v>
       </c>
-      <c r="F209" s="3" t="s">
+      <c r="F209" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C210" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210" s="3" t="s">
+      <c r="C210" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E210" s="3">
+      <c r="E210" s="2">
         <v>2.0</v>
       </c>
-      <c r="F210" s="3" t="s">
+      <c r="F210" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" s="3" t="s">
+      <c r="C211" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211" s="2">
         <v>5.0</v>
       </c>
-      <c r="F211" s="3" t="s">
+      <c r="F211" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" s="3" t="s">
+      <c r="C212" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212" s="2">
         <v>4.0</v>
       </c>
-      <c r="F212" s="3" t="s">
+      <c r="F212" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E213" s="3">
+      <c r="C213" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" s="2">
         <v>3.0</v>
       </c>
-      <c r="F213" s="3" t="s">
+      <c r="F213" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D214" s="3" t="s">
+      <c r="C214" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214" s="2">
         <v>1.0</v>
       </c>
-      <c r="F214" s="3" t="s">
+      <c r="F214" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E215" s="3">
+      <c r="C215" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" s="2">
         <v>4.0</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F215" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C216" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D216" s="3" t="s">
+      <c r="C216" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E216" s="2">
         <v>1.0</v>
       </c>
-      <c r="F216" s="3" t="s">
+      <c r="F216" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D217" s="3" t="s">
+      <c r="C217" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E217" s="2">
         <v>2.0</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F217" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D218" s="3" t="s">
+      <c r="C218" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E218" s="2">
         <v>4.0</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="F218" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C219" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E219" s="3">
+      <c r="C219" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" s="2">
         <v>5.0</v>
       </c>
-      <c r="F219" s="3" t="s">
+      <c r="F219" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C220" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D220" s="3" t="s">
+      <c r="C220" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E220" s="2">
         <v>4.0</v>
       </c>
-      <c r="F220" s="3" t="s">
+      <c r="F220" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D221" s="3" t="s">
+      <c r="C221" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221" s="2">
         <v>5.0</v>
       </c>
-      <c r="F221" s="3" t="s">
+      <c r="F221" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C222" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D222" s="3" t="s">
+      <c r="C222" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222" s="2">
         <v>1.0</v>
       </c>
-      <c r="F222" s="3" t="s">
+      <c r="F222" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D223" s="3" t="s">
+      <c r="C223" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E223" s="3">
+      <c r="E223" s="2">
         <v>4.0</v>
       </c>
-      <c r="F223" s="3" t="s">
+      <c r="F223" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E224" s="3">
+      <c r="C224" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" s="2">
         <v>3.0</v>
       </c>
-      <c r="F224" s="3" t="s">
+      <c r="F224" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C225" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E225" s="3">
+      <c r="C225" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" s="2">
         <v>3.0</v>
       </c>
-      <c r="F225" s="3" t="s">
+      <c r="F225" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C226" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E226" s="3">
+      <c r="C226" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" s="2">
         <v>2.0</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="F226" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G227" s="3" t="s">
+      <c r="G227" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H227" s="3" t="s">
+      <c r="H227" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I227" s="3">
+      <c r="I227" s="2">
         <v>8.0</v>
       </c>
-      <c r="J227" s="3">
+      <c r="J227" s="2">
         <v>4.8</v>
       </c>
-      <c r="K227" s="3" t="s">
+      <c r="K227" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L227" s="3" t="s">
+      <c r="L227" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G228" s="3" t="s">
+      <c r="G228" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H228" s="3" t="s">
+      <c r="H228" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I228" s="3">
+      <c r="I228" s="2">
         <v>5.0</v>
       </c>
-      <c r="J228" s="3">
+      <c r="J228" s="2">
         <v>3.7</v>
       </c>
-      <c r="K228" s="3" t="s">
+      <c r="K228" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L228" s="3" t="s">
+      <c r="L228" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G229" s="3" t="s">
+      <c r="G229" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H229" s="3" t="s">
+      <c r="H229" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I229" s="3">
+      <c r="I229" s="2">
         <v>4.0</v>
       </c>
-      <c r="J229" s="3">
+      <c r="J229" s="2">
         <v>4.5</v>
       </c>
-      <c r="K229" s="3" t="s">
+      <c r="K229" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L229" s="3" t="s">
+      <c r="L229" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M230" s="3" t="s">
+      <c r="M230" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N230" s="3" t="s">
+      <c r="N230" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M231" s="3" t="s">
+      <c r="M231" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="N231" s="3" t="s">
+      <c r="N231" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D232" s="3" t="s">
+      <c r="C232" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E232" s="3">
+      <c r="E232" s="2">
         <v>5.0</v>
       </c>
-      <c r="F232" s="3" t="s">
+      <c r="F232" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D233" s="3" t="s">
+      <c r="C233" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E233" s="3">
+      <c r="E233" s="2">
         <v>5.0</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F233" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C234" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D234" s="3" t="s">
+      <c r="C234" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E234" s="3">
+      <c r="E234" s="2">
         <v>5.0</v>
       </c>
-      <c r="F234" s="3" t="s">
+      <c r="F234" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C235" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D235" s="3" t="s">
+      <c r="C235" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E235" s="3">
+      <c r="E235" s="2">
         <v>3.0</v>
       </c>
-      <c r="F235" s="3" t="s">
+      <c r="F235" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C236" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E236" s="3">
+      <c r="C236" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="2">
         <v>1.0</v>
       </c>
-      <c r="F236" s="3" t="s">
+      <c r="F236" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C237" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D237" s="3" t="s">
+      <c r="C237" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E237" s="3">
+      <c r="E237" s="2">
         <v>4.0</v>
       </c>
-      <c r="F237" s="3" t="s">
+      <c r="F237" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C238" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E238" s="3">
+      <c r="C238" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E238" s="2">
         <v>3.0</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="F238" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C239" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D239" s="3" t="s">
+      <c r="C239" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E239" s="3">
+      <c r="E239" s="2">
         <v>4.0</v>
       </c>
-      <c r="F239" s="3" t="s">
+      <c r="F239" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C240" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D240" s="3" t="s">
+      <c r="C240" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E240" s="3">
+      <c r="E240" s="2">
         <v>1.0</v>
       </c>
-      <c r="F240" s="3" t="s">
+      <c r="F240" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C241" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D241" s="3" t="s">
+      <c r="C241" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E241" s="3">
+      <c r="E241" s="2">
         <v>3.0</v>
       </c>
-      <c r="F241" s="3" t="s">
+      <c r="F241" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E242" s="3">
+      <c r="C242" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" s="2">
         <v>5.0</v>
       </c>
-      <c r="F242" s="3" t="s">
+      <c r="F242" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C243" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D243" s="3" t="s">
+      <c r="C243" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E243" s="3">
+      <c r="E243" s="2">
         <v>3.0</v>
       </c>
-      <c r="F243" s="3" t="s">
+      <c r="F243" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D244" s="3" t="s">
+      <c r="C244" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E244" s="3">
+      <c r="E244" s="2">
         <v>3.0</v>
       </c>
-      <c r="F244" s="3" t="s">
+      <c r="F244" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C245" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D245" s="3" t="s">
+      <c r="C245" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E245" s="3">
+      <c r="E245" s="2">
         <v>1.0</v>
       </c>
-      <c r="F245" s="3" t="s">
+      <c r="F245" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C246" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D246" s="3" t="s">
+      <c r="C246" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E246" s="3">
+      <c r="E246" s="2">
         <v>5.0</v>
       </c>
-      <c r="F246" s="3" t="s">
+      <c r="F246" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G250" s="3" t="s">
+      <c r="G250" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H250" s="3" t="s">
+      <c r="H250" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I250" s="3">
+      <c r="I250" s="2">
         <v>11.0</v>
       </c>
-      <c r="J250" s="3">
+      <c r="J250" s="2">
         <v>4.7</v>
       </c>
-      <c r="K250" s="3" t="s">
+      <c r="K250" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L250" s="3" t="s">
+      <c r="L250" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G251" s="3" t="s">
+      <c r="G251" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H251" s="3" t="s">
+      <c r="H251" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I251" s="3">
+      <c r="I251" s="2">
         <v>6.0</v>
       </c>
-      <c r="J251" s="3">
+      <c r="J251" s="2">
         <v>3.7</v>
       </c>
-      <c r="K251" s="3" t="s">
+      <c r="K251" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L251" s="3" t="s">
+      <c r="L251" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G252" s="3" t="s">
+      <c r="G252" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H252" s="3" t="s">
+      <c r="H252" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I252" s="3">
+      <c r="I252" s="2">
         <v>5.0</v>
       </c>
-      <c r="J252" s="3">
+      <c r="J252" s="2">
         <v>4.5</v>
       </c>
-      <c r="K252" s="3" t="s">
+      <c r="K252" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L252" s="3" t="s">
+      <c r="L252" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M253" s="3" t="s">
+      <c r="M253" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N253" s="3" t="s">
+      <c r="N253" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M254" s="3" t="s">
+      <c r="M254" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N254" s="3" t="s">
+      <c r="N254" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D255" s="3" t="s">
+      <c r="C255" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255" s="2">
         <v>1.0</v>
       </c>
-      <c r="F255" s="3" t="s">
+      <c r="F255" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C256" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D256" s="3" t="s">
+      <c r="C256" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E256" s="3">
+      <c r="E256" s="2">
         <v>4.0</v>
       </c>
-      <c r="F256" s="3" t="s">
+      <c r="F256" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C257" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D257" s="3" t="s">
+      <c r="C257" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E257" s="3">
+      <c r="E257" s="2">
         <v>4.0</v>
       </c>
-      <c r="F257" s="3" t="s">
+      <c r="F257" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D258" s="3" t="s">
+      <c r="C258" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E258" s="3">
+      <c r="E258" s="2">
         <v>5.0</v>
       </c>
-      <c r="F258" s="3" t="s">
+      <c r="F258" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C259" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E259" s="3">
+      <c r="C259" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E259" s="2">
         <v>4.0</v>
       </c>
-      <c r="F259" s="3" t="s">
+      <c r="F259" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C260" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D260" s="3" t="s">
+      <c r="C260" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E260" s="3">
+      <c r="E260" s="2">
         <v>3.0</v>
       </c>
-      <c r="F260" s="3" t="s">
+      <c r="F260" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C261" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E261" s="3">
+      <c r="C261" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E261" s="2">
         <v>1.0</v>
       </c>
-      <c r="F261" s="3" t="s">
+      <c r="F261" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D262" s="3" t="s">
+      <c r="C262" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262" s="2">
         <v>2.0</v>
       </c>
-      <c r="F262" s="3" t="s">
+      <c r="F262" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C263" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D263" s="3" t="s">
+      <c r="C263" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E263" s="3">
+      <c r="E263" s="2">
         <v>3.0</v>
       </c>
-      <c r="F263" s="3" t="s">
+      <c r="F263" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C264" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D264" s="3" t="s">
+      <c r="C264" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E264" s="3">
+      <c r="E264" s="2">
         <v>3.0</v>
       </c>
-      <c r="F264" s="3" t="s">
+      <c r="F264" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C265" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E265" s="3">
+      <c r="C265" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E265" s="2">
         <v>4.0</v>
       </c>
-      <c r="F265" s="3" t="s">
+      <c r="F265" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D266" s="3" t="s">
+      <c r="C266" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E266" s="3">
+      <c r="E266" s="2">
         <v>1.0</v>
       </c>
-      <c r="F266" s="3" t="s">
+      <c r="F266" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C267" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D267" s="3" t="s">
+      <c r="C267" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C268" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D268" s="3" t="s">
+      <c r="C268" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D268" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D269" s="3" t="s">
+      <c r="C269" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G273" s="3" t="s">
+      <c r="G273" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H273" s="3" t="s">
+      <c r="H273" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I273" s="3">
+      <c r="I273" s="2">
         <v>6.0</v>
       </c>
-      <c r="J273" s="3">
+      <c r="J273" s="2">
         <v>4.1</v>
       </c>
-      <c r="K273" s="3" t="s">
+      <c r="K273" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L273" s="3" t="s">
+      <c r="L273" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G274" s="3" t="s">
+      <c r="G274" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H274" s="3" t="s">
+      <c r="H274" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I274" s="3">
+      <c r="I274" s="2">
         <v>7.0</v>
       </c>
-      <c r="J274" s="3">
+      <c r="J274" s="2">
         <v>4.3</v>
       </c>
-      <c r="K274" s="3" t="s">
+      <c r="K274" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L274" s="3" t="s">
+      <c r="L274" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G275" s="3" t="s">
+      <c r="G275" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H275" s="3" t="s">
+      <c r="H275" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I275" s="3">
+      <c r="I275" s="2">
         <v>12.0</v>
       </c>
-      <c r="J275" s="3">
+      <c r="J275" s="2">
         <v>4.8</v>
       </c>
-      <c r="K275" s="3" t="s">
+      <c r="K275" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L275" s="3" t="s">
+      <c r="L275" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M276" s="3" t="s">
+      <c r="M276" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="N276" s="3" t="s">
+      <c r="N276" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M277" s="3" t="s">
+      <c r="M277" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="N277" s="3" t="s">
+      <c r="N277" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C278" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D278" s="3" t="s">
+      <c r="C278" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D278" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E278" s="3">
+      <c r="E278" s="2">
         <v>2.0</v>
       </c>
-      <c r="F278" s="3" t="s">
+      <c r="F278" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C279" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D279" s="3" t="s">
+      <c r="C279" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D279" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E279" s="3">
+      <c r="E279" s="2">
         <v>2.0</v>
       </c>
-      <c r="F279" s="3" t="s">
+      <c r="F279" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C280" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D280" s="3" t="s">
+      <c r="C280" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E280" s="3">
+      <c r="E280" s="2">
         <v>5.0</v>
       </c>
-      <c r="F280" s="3" t="s">
+      <c r="F280" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C281" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D281" s="3" t="s">
+      <c r="C281" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E281" s="3">
+      <c r="E281" s="2">
         <v>2.0</v>
       </c>
-      <c r="F281" s="3" t="s">
+      <c r="F281" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C282" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E282" s="3">
+      <c r="C282" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E282" s="2">
         <v>1.0</v>
       </c>
-      <c r="F282" s="3" t="s">
+      <c r="F282" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C283" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D283" s="3" t="s">
+      <c r="C283" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E283" s="3">
+      <c r="E283" s="2">
         <v>2.0</v>
       </c>
-      <c r="F283" s="3" t="s">
+      <c r="F283" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C284" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E284" s="3">
+      <c r="C284" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E284" s="2">
         <v>4.0</v>
       </c>
-      <c r="F284" s="3" t="s">
+      <c r="F284" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C285" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D285" s="3" t="s">
+      <c r="C285" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D285" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E285" s="3">
+      <c r="E285" s="2">
         <v>4.0</v>
       </c>
-      <c r="F285" s="3" t="s">
+      <c r="F285" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C286" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D286" s="3" t="s">
+      <c r="C286" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E286" s="3">
+      <c r="E286" s="2">
         <v>5.0</v>
       </c>
-      <c r="F286" s="3" t="s">
+      <c r="F286" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C287" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D287" s="3" t="s">
+      <c r="C287" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E287" s="3">
+      <c r="E287" s="2">
         <v>5.0</v>
       </c>
-      <c r="F287" s="3" t="s">
+      <c r="F287" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C288" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E288" s="3">
+      <c r="C288" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E288" s="2">
         <v>4.0</v>
       </c>
-      <c r="F288" s="3" t="s">
+      <c r="F288" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C289" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D289" s="3" t="s">
+      <c r="C289" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E289" s="2">
         <v>5.0</v>
       </c>
-      <c r="F289" s="3" t="s">
+      <c r="F289" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C290" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D290" s="3" t="s">
+      <c r="C290" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D290" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E290" s="3">
+      <c r="E290" s="2">
         <v>5.0</v>
       </c>
-      <c r="F290" s="3" t="s">
+      <c r="F290" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C291" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D291" s="3" t="s">
+      <c r="C291" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D291" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E291" s="3">
+      <c r="E291" s="2">
         <v>3.0</v>
       </c>
-      <c r="F291" s="3" t="s">
+      <c r="F291" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C292" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D292" s="3" t="s">
+      <c r="C292" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D292" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E292" s="3">
+      <c r="E292" s="2">
         <v>3.0</v>
       </c>
-      <c r="F292" s="3" t="s">
+      <c r="F292" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C293" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E293" s="3">
+      <c r="C293" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E293" s="2">
         <v>2.0</v>
       </c>
-      <c r="F293" s="3" t="s">
+      <c r="F293" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C294" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E294" s="3">
+      <c r="C294" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E294" s="2">
         <v>4.0</v>
       </c>
-      <c r="F294" s="3" t="s">
+      <c r="F294" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C295" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E295" s="3">
+      <c r="C295" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E295" s="2">
         <v>1.0</v>
       </c>
-      <c r="F295" s="3" t="s">
+      <c r="F295" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G296" s="3" t="s">
+      <c r="G296" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H296" s="3" t="s">
+      <c r="H296" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I296" s="3">
+      <c r="I296" s="2">
         <v>10.0</v>
       </c>
-      <c r="J296" s="3">
+      <c r="J296" s="2">
         <v>3.1</v>
       </c>
-      <c r="K296" s="3" t="s">
+      <c r="K296" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L296" s="3" t="s">
+      <c r="L296" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G297" s="3" t="s">
+      <c r="G297" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H297" s="3" t="s">
+      <c r="H297" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I297" s="3">
+      <c r="I297" s="2">
         <v>10.0</v>
       </c>
-      <c r="J297" s="3">
+      <c r="J297" s="2">
         <v>3.9</v>
       </c>
-      <c r="K297" s="3" t="s">
+      <c r="K297" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L297" s="3" t="s">
+      <c r="L297" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G298" s="3" t="s">
+      <c r="G298" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H298" s="3" t="s">
+      <c r="H298" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I298" s="3">
+      <c r="I298" s="2">
         <v>7.0</v>
       </c>
-      <c r="J298" s="3">
+      <c r="J298" s="2">
         <v>3.1</v>
       </c>
-      <c r="K298" s="3" t="s">
+      <c r="K298" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L298" s="3" t="s">
+      <c r="L298" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M299" s="3" t="s">
+      <c r="M299" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="N299" s="3" t="s">
+      <c r="N299" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M300" s="3" t="s">
+      <c r="M300" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N300" s="3" t="s">
+      <c r="N300" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D301" s="3" t="s">
+      <c r="C301" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E301" s="3">
+      <c r="E301" s="2">
         <v>5.0</v>
       </c>
-      <c r="F301" s="3" t="s">
+      <c r="F301" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C302" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D302" s="3" t="s">
+      <c r="C302" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D302" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E302" s="3">
+      <c r="E302" s="2">
         <v>1.0</v>
       </c>
-      <c r="F302" s="3" t="s">
+      <c r="F302" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C303" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D303" s="3" t="s">
+      <c r="C303" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D303" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E303" s="3">
+      <c r="E303" s="2">
         <v>2.0</v>
       </c>
-      <c r="F303" s="3" t="s">
+      <c r="F303" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C304" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D304" s="3" t="s">
+      <c r="C304" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E304" s="3">
+      <c r="E304" s="2">
         <v>4.0</v>
       </c>
-      <c r="F304" s="3" t="s">
+      <c r="F304" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C305" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E305" s="3">
+      <c r="C305" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E305" s="2">
         <v>5.0</v>
       </c>
-      <c r="F305" s="3" t="s">
+      <c r="F305" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C306" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D306" s="3" t="s">
+      <c r="C306" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E306" s="3">
+      <c r="E306" s="2">
         <v>4.0</v>
       </c>
-      <c r="F306" s="3" t="s">
+      <c r="F306" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C307" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E307" s="3">
+      <c r="C307" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E307" s="2">
         <v>3.0</v>
       </c>
-      <c r="F307" s="3" t="s">
+      <c r="F307" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C308" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D308" s="3" t="s">
+      <c r="C308" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E308" s="3">
+      <c r="E308" s="2">
         <v>2.0</v>
       </c>
-      <c r="F308" s="3" t="s">
+      <c r="F308" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C309" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D309" s="3" t="s">
+      <c r="C309" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E309" s="3">
+      <c r="E309" s="2">
         <v>5.0</v>
       </c>
-      <c r="F309" s="3" t="s">
+      <c r="F309" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D310" s="3" t="s">
+      <c r="C310" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D310" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E310" s="3">
+      <c r="E310" s="2">
         <v>4.0</v>
       </c>
-      <c r="F310" s="3" t="s">
+      <c r="F310" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C311" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E311" s="3">
+      <c r="C311" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" s="2">
         <v>4.0</v>
       </c>
-      <c r="F311" s="3" t="s">
+      <c r="F311" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C312" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D312" s="3" t="s">
+      <c r="C312" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D312" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E312" s="3">
+      <c r="E312" s="2">
         <v>1.0</v>
       </c>
-      <c r="F312" s="3" t="s">
+      <c r="F312" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D313" s="3" t="s">
+      <c r="C313" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D313" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C314" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D314" s="3" t="s">
+      <c r="C314" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D314" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C315" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D315" s="3" t="s">
+      <c r="C315" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D315" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G319" s="3" t="s">
+      <c r="G319" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H319" s="3" t="s">
+      <c r="H319" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I319" s="3">
+      <c r="I319" s="2">
         <v>10.0</v>
       </c>
-      <c r="J319" s="3">
+      <c r="J319" s="2">
         <v>3.7</v>
       </c>
-      <c r="K319" s="3" t="s">
+      <c r="K319" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L319" s="3" t="s">
+      <c r="L319" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G320" s="3" t="s">
+      <c r="G320" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H320" s="3" t="s">
+      <c r="H320" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I320" s="3">
+      <c r="I320" s="2">
         <v>8.0</v>
       </c>
-      <c r="J320" s="3">
+      <c r="J320" s="2">
         <v>4.4</v>
       </c>
-      <c r="K320" s="3" t="s">
+      <c r="K320" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L320" s="3" t="s">
+      <c r="L320" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G321" s="3" t="s">
+      <c r="G321" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H321" s="3" t="s">
+      <c r="H321" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I321" s="3">
+      <c r="I321" s="2">
         <v>9.0</v>
       </c>
-      <c r="J321" s="3">
+      <c r="J321" s="2">
         <v>3.6</v>
       </c>
-      <c r="K321" s="3" t="s">
+      <c r="K321" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L321" s="3" t="s">
+      <c r="L321" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M322" s="3" t="s">
+      <c r="M322" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="N322" s="3" t="s">
+      <c r="N322" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M323" s="3" t="s">
+      <c r="M323" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="N323" s="3" t="s">
+      <c r="N323" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C324" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D324" s="3" t="s">
+      <c r="C324" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D324" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E324" s="3">
+      <c r="E324" s="2">
         <v>3.0</v>
       </c>
-      <c r="F324" s="3" t="s">
+      <c r="F324" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C325" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D325" s="3" t="s">
+      <c r="C325" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E325" s="3">
+      <c r="E325" s="2">
         <v>3.0</v>
       </c>
-      <c r="F325" s="3" t="s">
+      <c r="F325" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C326" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D326" s="3" t="s">
+      <c r="C326" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D326" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E326" s="3">
+      <c r="E326" s="2">
         <v>1.0</v>
       </c>
-      <c r="F326" s="3" t="s">
+      <c r="F326" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C327" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D327" s="3" t="s">
+      <c r="C327" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D327" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E327" s="2">
         <v>4.0</v>
       </c>
-      <c r="F327" s="3" t="s">
+      <c r="F327" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C328" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E328" s="3">
+      <c r="C328" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E328" s="2">
         <v>5.0</v>
       </c>
-      <c r="F328" s="3" t="s">
+      <c r="F328" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C329" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D329" s="3" t="s">
+      <c r="C329" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E329" s="3">
+      <c r="E329" s="2">
         <v>1.0</v>
       </c>
-      <c r="F329" s="3" t="s">
+      <c r="F329" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C330" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E330" s="3">
+      <c r="C330" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E330" s="2">
         <v>5.0</v>
       </c>
-      <c r="F330" s="3" t="s">
+      <c r="F330" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C331" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D331" s="3" t="s">
+      <c r="C331" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D331" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E331" s="3">
+      <c r="E331" s="2">
         <v>4.0</v>
       </c>
-      <c r="F331" s="3" t="s">
+      <c r="F331" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C332" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D332" s="3" t="s">
+      <c r="C332" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E332" s="3">
+      <c r="E332" s="2">
         <v>4.0</v>
       </c>
-      <c r="F332" s="3" t="s">
+      <c r="F332" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C333" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D333" s="3" t="s">
+      <c r="C333" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D333" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E333" s="3">
+      <c r="E333" s="2">
         <v>1.0</v>
       </c>
-      <c r="F333" s="3" t="s">
+      <c r="F333" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C334" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E334" s="3">
+      <c r="C334" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E334" s="2">
         <v>2.0</v>
       </c>
-      <c r="F334" s="3" t="s">
+      <c r="F334" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C335" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D335" s="3" t="s">
+      <c r="C335" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D335" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E335" s="3">
+      <c r="E335" s="2">
         <v>5.0</v>
       </c>
-      <c r="F335" s="3" t="s">
+      <c r="F335" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C336" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D336" s="3" t="s">
+      <c r="C336" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D336" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C337" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D337" s="3" t="s">
+      <c r="C337" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C338" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D338" s="3" t="s">
+      <c r="C338" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D338" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C339" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C340" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C341" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G342" s="3" t="s">
+      <c r="G342" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H342" s="3" t="s">
+      <c r="H342" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I342" s="3">
+      <c r="I342" s="2">
         <v>8.0</v>
       </c>
-      <c r="J342" s="3">
+      <c r="J342" s="2">
         <v>4.1</v>
       </c>
-      <c r="K342" s="3" t="s">
+      <c r="K342" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L342" s="3" t="s">
+      <c r="L342" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G343" s="3" t="s">
+      <c r="G343" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H343" s="3" t="s">
+      <c r="H343" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I343" s="3">
+      <c r="I343" s="2">
         <v>12.0</v>
       </c>
-      <c r="J343" s="3">
+      <c r="J343" s="2">
         <v>4.9</v>
       </c>
-      <c r="K343" s="3" t="s">
+      <c r="K343" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L343" s="3" t="s">
+      <c r="L343" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G344" s="3" t="s">
+      <c r="G344" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H344" s="3" t="s">
+      <c r="H344" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I344" s="3">
+      <c r="I344" s="2">
         <v>10.0</v>
       </c>
-      <c r="J344" s="3">
+      <c r="J344" s="2">
         <v>3.9</v>
       </c>
-      <c r="K344" s="3" t="s">
+      <c r="K344" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L344" s="3" t="s">
+      <c r="L344" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C345" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M345" s="3" t="s">
+      <c r="M345" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N345" s="3" t="s">
+      <c r="N345" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C346" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M346" s="3" t="s">
+      <c r="M346" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N346" s="3" t="s">
+      <c r="N346" s="2" t="s">
         <v>247</v>
       </c>
     </row>
